--- a/document_database/filmek.xlsx
+++ b/document_database/filmek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="729">
   <si>
     <t>id</t>
   </si>
@@ -703,24 +703,60 @@
     <t>Kísértés</t>
   </si>
   <si>
+    <t>https://youtu.be/aaQtW14mOb4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/aaQtW14mOb4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Kölcsönadott élet</t>
   </si>
   <si>
+    <t>https://youtu.be/E0B38sLYqnk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/E0B38sLYqnk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Kölcsönkért férjek</t>
   </si>
   <si>
     <t>A kölcsönkért kastély</t>
   </si>
   <si>
+    <t>https://youtu.be/dMtRYvit9L8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dMtRYvit9L8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Köszönöm, hogy elgázolt</t>
   </si>
   <si>
+    <t>https://youtu.be/6qs_SsWgNlY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/6qs_SsWgNlY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Külvárosi őrszoba</t>
   </si>
   <si>
+    <t>https://youtu.be/AbnFIGxDTXQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AbnFIGxDTXQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Lángok</t>
   </si>
   <si>
+    <t>https://youtu.be/2Hzi5DnXLDI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/2Hzi5DnXLDI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A láp virága</t>
   </si>
   <si>
@@ -730,42 +766,102 @@
     <t>Leányvásár</t>
   </si>
   <si>
+    <t>https://youtu.be/B3zhK_JLnbc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/B3zhK_JLnbc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Lesz, ami lesz</t>
   </si>
   <si>
+    <t>https://youtu.be/770mxaLf9xY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/770mxaLf9xY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Lila akác</t>
   </si>
   <si>
+    <t>https://youtu.be/OhPDnmT8CN4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/OhPDnmT8CN4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Ma, tegnap, holnap</t>
   </si>
   <si>
     <t>Maga lesz a férjem</t>
   </si>
   <si>
+    <t>https://youtu.be/0xGvpdIO1nw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0xGvpdIO1nw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Magdolna</t>
   </si>
   <si>
+    <t>https://youtu.be/n7a77Wi4wSk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/n7a77Wi4wSk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Magyar sasok</t>
   </si>
   <si>
     <t>Mai lányok</t>
   </si>
   <si>
+    <t>https://youtu.be/mNmysRluqAw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mNmysRluqAw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Makkhetes</t>
   </si>
   <si>
     <t>Marika</t>
   </si>
   <si>
+    <t>https://youtu.be/WLgifAxq6nc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WLgifAxq6nc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Mámi</t>
   </si>
   <si>
+    <t>https://youtu.be/5Wq5AyJwwPA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5Wq5AyJwwPA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Márciusi mese</t>
   </si>
   <si>
+    <t>https://youtu.be/SQUxoRCi0v8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SQUxoRCi0v8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Mária két éjszakája</t>
   </si>
   <si>
+    <t>https://youtu.be/zuIaWn824Ds</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/zuIaWn824Ds" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Mária nővér</t>
   </si>
   <si>
@@ -775,9 +871,21 @@
     <t>Meseautó</t>
   </si>
   <si>
+    <t>https://youtu.be/CU8t7dKvJ08</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CU8t7dKvJ08" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Mindenki mást szeret</t>
   </si>
   <si>
+    <t>https://youtu.be/5tdVgfQR2eQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5tdVgfQR2eQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A miniszter barátja</t>
   </si>
   <si>
@@ -787,33 +895,69 @@
     <t>Nászút féláron</t>
   </si>
   <si>
+    <t>https://youtu.be/mvQovARspEI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mvQovARspEI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Negyedíziglen</t>
   </si>
   <si>
     <t>Nem élhetek muzsikaszó nélkül</t>
   </si>
   <si>
+    <t>https://youtu.be/bKRFcOa8Tvs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/bKRFcOa8Tvs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Négylovas hintó</t>
   </si>
   <si>
     <t>A Noszty-fiú esete Tóth Marival</t>
   </si>
   <si>
+    <t>https://youtu.be/N9JrFYKb29Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N9JrFYKb29Q" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A nőnek mindig sikerül</t>
   </si>
   <si>
     <t>Az okos mama</t>
   </si>
   <si>
+    <t>https://youtu.be/0eD8etd3ldg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/0eD8etd3ldg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Ópiumkeringő</t>
   </si>
   <si>
+    <t>https://youtu.be/td0InV8H5qs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/td0InV8H5qs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Az örök titok</t>
   </si>
   <si>
     <t>5 óra 40</t>
   </si>
   <si>
+    <t>https://youtu.be/EabpWkslSQo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EabpWkslSQo" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>5-ös számú őrház</t>
   </si>
   <si>
@@ -823,48 +967,114 @@
     <t>Papucshős</t>
   </si>
   <si>
+    <t>https://youtu.be/5v6_aEhJCtY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5v6_aEhJCtY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Párbaj semmiért</t>
   </si>
   <si>
+    <t>https://youtu.be/iOrLa9CfhW0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iOrLa9CfhW0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Pergőtűzben!</t>
   </si>
   <si>
     <t>Péntek Rézi</t>
   </si>
   <si>
+    <t>https://youtu.be/PmEmIwQ4zvc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PmEmIwQ4zvc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Pénz beszél</t>
   </si>
   <si>
     <t>Pillanatnyi pénzzavar</t>
   </si>
   <si>
+    <t>https://youtu.be/yq0XgKAN1V8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/yq0XgKAN1V8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Piri mindent tud</t>
   </si>
   <si>
+    <t>https://youtu.be/dwLuWV2eoAs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/dwLuWV2eoAs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Pista tekintetes úr</t>
   </si>
   <si>
+    <t>https://youtu.be/a6JnJA6LT60</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/a6JnJA6LT60" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Pókháló</t>
   </si>
   <si>
+    <t>https://youtu.be/3RQIogOaT80</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/3RQIogOaT80" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Ragaszkodom a szerelemhez</t>
   </si>
   <si>
     <t>Repülő arany</t>
   </si>
   <si>
+    <t>https://youtu.be/a-C9mPwIyvU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/a-C9mPwIyvU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Régi keringő</t>
   </si>
   <si>
+    <t>https://youtu.be/HkTb2XuTndM</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/HkTb2XuTndM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A régi nyár</t>
   </si>
   <si>
     <t>Rozmaring</t>
   </si>
   <si>
+    <t>https://youtu.be/LqC9mudq9YM</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LqC9mudq9YM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Rózsafabot</t>
   </si>
   <si>
+    <t>https://youtu.be/Kf7qrm5tT_g</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Kf7qrm5tT_g" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Sárga kaszinó</t>
   </si>
   <si>
@@ -877,15 +1087,39 @@
     <t>Segítség, örököltem!</t>
   </si>
   <si>
+    <t>https://youtu.be/1gGvcA050ks</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1gGvcA050ks" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Semmelweis</t>
   </si>
   <si>
+    <t>https://youtu.be/-zN2UFu8mEo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-zN2UFu8mEo" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Sok hűhó Emmiért</t>
   </si>
   <si>
+    <t>https://youtu.be/AJ3U2QF-4DY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/AJ3U2QF-4DY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Süt a nap</t>
   </si>
   <si>
+    <t>https://youtu.be/SGfsAPiVNlg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SGfsAPiVNlg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szabotázs</t>
   </si>
   <si>
@@ -895,33 +1129,87 @@
     <t>Szent Péter esernyője</t>
   </si>
   <si>
+    <t>https://youtu.be/_e4m0A-wwGc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_e4m0A-wwGc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szenzáció!</t>
   </si>
   <si>
+    <t>https://youtu.be/kBH7p4xvgfA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/kBH7p4xvgfA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A szerelem nem szégyen</t>
   </si>
   <si>
+    <t>https://youtu.be/oNtGqVaWU7U</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oNtGqVaWU7U" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szerelemből nősültem</t>
   </si>
   <si>
+    <t>https://youtu.be/DI2se1aByMg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/DI2se1aByMg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szeressük egymást</t>
   </si>
   <si>
+    <t>https://youtu.be/_Nc8N-zvA1A</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_Nc8N-zvA1A" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szervusz, Péter!</t>
   </si>
   <si>
     <t>Sziámi macska</t>
   </si>
   <si>
+    <t>https://youtu.be/gN-3khOQhDA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gN-3khOQhDA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szíriusz</t>
   </si>
   <si>
+    <t>https://youtu.be/4HrNQYo7q2E</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4HrNQYo7q2E" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szováthy Éva</t>
   </si>
   <si>
+    <t>https://youtu.be/oZa7pCyejKc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oZa7pCyejKc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szüts Mara házassága</t>
   </si>
   <si>
+    <t>https://youtu.be/nYBDxONJfq8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nYBDxONJfq8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A szűz és a gödölye</t>
   </si>
   <si>
@@ -946,33 +1234,81 @@
     <t>Tomi, a megfagyott gyermek</t>
   </si>
   <si>
+    <t>https://youtu.be/yegpR36WWGY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/yegpR36WWGY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Toprini nász</t>
   </si>
   <si>
+    <t>https://youtu.be/nYArZljSDoU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/nYArZljSDoU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Tóparti látomás</t>
   </si>
   <si>
+    <t>https://youtu.be/CEsMkLzNGmw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/CEsMkLzNGmw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A tökéletes család</t>
   </si>
   <si>
     <t>Tökéletes férfi</t>
   </si>
   <si>
+    <t>https://youtu.be/F4tE5bgV0mc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/F4tE5bgV0mc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Az új rokon</t>
   </si>
   <si>
+    <t>https://youtu.be/FQos_wAQQAg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/FQos_wAQQAg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Az utolsó dal</t>
   </si>
   <si>
     <t>Az utolsó Wereczkey</t>
   </si>
   <si>
+    <t>https://youtu.be/y1Ii4Nre6NA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/y1Ii4Nre6NA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Úrilány szobát keres</t>
   </si>
   <si>
+    <t>https://youtu.be/5jLUp0_IaHs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/5jLUp0_IaHs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Vadrózsa</t>
   </si>
   <si>
+    <t>https://youtu.be/yEZNVVZtrNw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/yEZNVVZtrNw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Végre...</t>
   </si>
   <si>
@@ -982,18 +1318,48 @@
     <t>Viki</t>
   </si>
   <si>
+    <t>https://youtu.be/Z6Kxll5NZjg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Z6Kxll5NZjg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Vissza az úton</t>
   </si>
   <si>
+    <t>https://youtu.be/YHeAfyt9tLA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/YHeAfyt9tLA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Zárt tárgyalás</t>
   </si>
   <si>
+    <t>https://youtu.be/N715YtexHVc</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N715YtexHVc" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Zenélő malom</t>
   </si>
   <si>
+    <t>https://youtu.be/VhpB5gu2_XI</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/VhpB5gu2_XI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>120-as tempó</t>
   </si>
   <si>
+    <t>https://youtu.be/VYHXy6UfSdk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/VYHXy6UfSdk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>3:1 a szerelem javára</t>
   </si>
   <si>
@@ -1006,24 +1372,54 @@
     <t>A csúnya lány</t>
   </si>
   <si>
+    <t>https://youtu.be/zoMGcGQIL2Q</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/zoMGcGQIL2Q" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Fehér vonat</t>
   </si>
   <si>
     <t>A harapós férj</t>
   </si>
   <si>
+    <t>https://youtu.be/T3U05JzPum0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/T3U05JzPum0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A hegyek lánya</t>
   </si>
   <si>
     <t>A kegyelmes úr rokona</t>
   </si>
   <si>
+    <t>https://youtu.be/mBMLvhkQPPU</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>A kék bálvány</t>
   </si>
   <si>
+    <t>https://youtu.be/T8oczIWISt4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/T8oczIWISt4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A királyné huszárja</t>
   </si>
   <si>
+    <t>https://youtu.be/wFIzN9EFw8w</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wFIzN9EFw8w" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A látszat csal</t>
   </si>
   <si>
@@ -1039,9 +1435,21 @@
     <t>A piros bugyelláris</t>
   </si>
   <si>
+    <t>https://youtu.be/yWryEW4vKW4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/yWryEW4vKW4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A pusztai királykisasszony</t>
   </si>
   <si>
+    <t>https://youtu.be/csR2GigNBpk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/csR2GigNBpk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A szép Pongrácné krinolinja</t>
   </si>
   <si>
@@ -1069,6 +1477,12 @@
     <t>Az első</t>
   </si>
   <si>
+    <t>https://youtu.be/i4jljwY1iMg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/i4jljwY1iMg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Az ember néha téved</t>
   </si>
   <si>
@@ -1081,12 +1495,21 @@
     <t>Az ördög nem alszik</t>
   </si>
   <si>
+    <t xml:space="preserve">nincs </t>
+  </si>
+  <si>
     <t>Az új földesúr</t>
   </si>
   <si>
     <t>Barátságos arcot kérek!</t>
   </si>
   <si>
+    <t>https://youtu.be/RreZ7kAMd24</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RreZ7kAMd24" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Beszállásolás</t>
   </si>
   <si>
@@ -1099,39 +1522,81 @@
     <t>Budai cukrászda</t>
   </si>
   <si>
+    <t>https://youtu.be/ed3W8SbG-vU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ed3W8SbG-vU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Búzavirág</t>
   </si>
   <si>
     <t>Cifra nyomorúság</t>
   </si>
   <si>
+    <t>https://youtu.be/a698I5ht9MY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/a698I5ht9MY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Csak egy kislány van a világon</t>
   </si>
   <si>
+    <t>https://youtu.be/UJ_tXpKhHlo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/UJ_tXpKhHlo" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Családi pótlék</t>
   </si>
   <si>
     <t>Családunk szégyene</t>
   </si>
   <si>
+    <t>https://youtu.be/4bQhKoby3t4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4bQhKoby3t4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Édes a bosszú</t>
   </si>
   <si>
     <t>Édes mostoha</t>
   </si>
   <si>
+    <t>https://youtu.be/gUcgvTJ1xhs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gUcgvTJ1xhs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Egér a palotában</t>
   </si>
   <si>
     <t>Egy bolond százat csinál</t>
   </si>
   <si>
+    <t>https://youtu.be/4PTAUY2oc1M</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4PTAUY2oc1M" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Egy fiúnak a fele</t>
   </si>
   <si>
     <t>Egy gép nem tért vissza</t>
   </si>
   <si>
+    <t>https://youtu.be/mhvGlEpsTZs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mhvGlEpsTZs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Egy nap a világ</t>
   </si>
   <si>
@@ -1144,9 +1609,21 @@
     <t>Egy tál lencse</t>
   </si>
   <si>
+    <t>https://youtu.be/ee8sBS7R03Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ee8sBS7R03Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Éjféli keringő</t>
   </si>
   <si>
+    <t>https://www.youtube.com/live/rh2IaUYB-Rs?feature=share</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rh2IaUYB-Rs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Éjjeli zene</t>
   </si>
   <si>
@@ -1156,12 +1633,27 @@
     <t>Elnökkisasszony</t>
   </si>
   <si>
+    <t>https://youtu.be/jRcvZcWRigk</t>
+  </si>
+  <si>
     <t>Ember a híd alatt</t>
   </si>
   <si>
+    <t>https://youtu.be/u3giQVOvXv4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/u3giQVOvXv4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Emmy</t>
   </si>
   <si>
+    <t>https://youtu.be/Yf9joQ19oYM</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Yf9joQ19oYM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Enyém vagy</t>
   </si>
   <si>
@@ -1171,12 +1663,24 @@
     <t>Estélyi ruha kötelező</t>
   </si>
   <si>
+    <t>https://youtu.be/fqoANWeJ3zM</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/fqoANWeJ3zM" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Évforduló</t>
   </si>
   <si>
     <t>A falu rossza</t>
   </si>
   <si>
+    <t>https://youtu.be/14wMEhDmTJ0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/14wMEhDmTJ0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Fehérvári huszárok</t>
   </si>
   <si>
@@ -1186,6 +1690,12 @@
     <t>Férjet keresek</t>
   </si>
   <si>
+    <t>https://youtu.be/8EIiBxRzTq0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8EIiBxRzTq0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Filléres gyors</t>
   </si>
   <si>
@@ -1198,6 +1708,12 @@
     <t>Földindulás</t>
   </si>
   <si>
+    <t>https://youtu.be/H0lJ3YWiF4g</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/H0lJ3YWiF4g" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Futóhomok</t>
   </si>
   <si>
@@ -1225,27 +1741,63 @@
     <t>Három csengő</t>
   </si>
   <si>
+    <t>https://youtu.be/KQUh0YJTj1Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/KQUh0YJTj1Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A három galamb</t>
   </si>
   <si>
     <t>Három sárkány</t>
   </si>
   <si>
+    <t>https://youtu.be/FPUprYmPRnA</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/FPUprYmPRnA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Háry János</t>
   </si>
   <si>
+    <t>https://youtu.be/b3r1TGIND_8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/b3r1TGIND_8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Havasi napsütés</t>
   </si>
   <si>
     <t>Házassággal kezdődik</t>
   </si>
   <si>
+    <t>https://youtu.be/jWLrQmFDKi0</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/jWLrQmFDKi0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Helyet az öregeknek</t>
   </si>
   <si>
+    <t>https://youtu.be/ia_N9Zs_Cdw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ia_N9Zs_Cdw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Heten, mint a gonoszok</t>
   </si>
   <si>
+    <t>https://youtu.be/lgsb8iZLils</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lgsb8iZLils" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Hol alszunk vasárnap?</t>
   </si>
   <si>
@@ -1255,6 +1807,12 @@
     <t>Hyppolit, a lakáj</t>
   </si>
   <si>
+    <t>https://youtu.be/uT642jQzvfg</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/uT642jQzvfg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Idegen utakon</t>
   </si>
   <si>
@@ -1276,6 +1834,12 @@
     <t>Késő</t>
   </si>
   <si>
+    <t>https://youtu.be/t8Wmt_egbNw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/t8Wmt_egbNw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Két fogoly</t>
   </si>
   <si>
@@ -1291,21 +1855,51 @@
     <t>Légy jó mindhalálig</t>
   </si>
   <si>
+    <t>https://youtu.be/SLywyhRIUS4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SLywyhRIUS4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Lejtőn</t>
   </si>
   <si>
     <t>Lelki klinika</t>
   </si>
   <si>
+    <t>https://youtu.be/NtukW8l7igk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/NtukW8l7igk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Lovagias ügy</t>
   </si>
   <si>
+    <t>https://youtu.be/2qwtnr9bu3c</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/2qwtnr9bu3c" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Machita</t>
   </si>
   <si>
+    <t>https://youtu.be/GwwbgbYpcEs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GwwbgbYpcEs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Madách</t>
   </si>
   <si>
+    <t>https://youtu.be/n_d3pMrGUJw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/n_d3pMrGUJw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Magdát kicsapják</t>
   </si>
   <si>
@@ -1315,12 +1909,30 @@
     <t>Majális</t>
   </si>
   <si>
+    <t>https://youtu.be/71GiVMjD8Us</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/71GiVMjD8Us" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Makacs Kata</t>
   </si>
   <si>
+    <t>https://youtu.be/vCV3cpAUhFU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/vCV3cpAUhFU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Makrancos hölgy</t>
   </si>
   <si>
+    <t>https://youtu.be/L2a7o4DLzPk</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/L2a7o4DLzPk" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Mátyás rendet csinál</t>
   </si>
   <si>
@@ -1330,6 +1942,12 @@
     <t>Méltóságos kisasszony</t>
   </si>
   <si>
+    <t>https://youtu.be/GaRC8s6aYJY</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GaRC8s6aYJY" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Miért?</t>
   </si>
   <si>
@@ -1342,6 +1960,12 @@
     <t>Nászinduló</t>
   </si>
   <si>
+    <t>https://youtu.be/fA6e_x1gDRs</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/fA6e_x1gDRs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Ne kérdezd, ki voltam</t>
   </si>
   <si>
@@ -1357,9 +1981,21 @@
     <t>Nemes rózsa</t>
   </si>
   <si>
+    <t>https://youtu.be/mgiMOHpcgIU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mgiMOHpcgIU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Nincsenek véletlenek</t>
   </si>
   <si>
+    <t>https://youtu.be/cHhxPJ8njiQ</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cHhxPJ8njiQ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Orient express</t>
   </si>
   <si>
@@ -1387,6 +2023,12 @@
     <t>Rákóczi induló</t>
   </si>
   <si>
+    <t>https://youtu.be/wFP1iOv9eCo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wFP1iOv9eCo" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Rákóczi nótája</t>
   </si>
   <si>
@@ -1396,9 +2038,21 @@
     <t>Sarajevo</t>
   </si>
   <si>
+    <t>https://youtu.be/iyITuU9hEyE</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/iyITuU9hEyE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>A sárga csikó</t>
   </si>
   <si>
+    <t>https://youtu.be/H1iMNEWNt9k</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/H1iMNEWNt9k" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szakítani nehéz dolog</t>
   </si>
   <si>
@@ -1408,6 +2062,12 @@
     <t>Szegény gazdagok</t>
   </si>
   <si>
+    <t>https://youtu.be/72a5wtgYdG4</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/72a5wtgYdG4" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szép csillag</t>
   </si>
   <si>
@@ -1423,6 +2083,12 @@
     <t>Szerelmi láz</t>
   </si>
   <si>
+    <t>https://youtu.be/mmg67PbbvZw</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/mmg67PbbvZw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Szerencsés flótás</t>
   </si>
   <si>
@@ -1432,6 +2098,12 @@
     <t>Tavaszi zápor</t>
   </si>
   <si>
+    <t>https://youtu.be/05JITg9C_4o</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/05JITg9C_4o" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Te csak pipálj, Ladányi!</t>
   </si>
   <si>
@@ -1444,24 +2116,60 @@
     <t>Tokaji rapszódia</t>
   </si>
   <si>
+    <t>https://youtu.be/o1bNjtM2Tp8</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/o1bNjtM2Tp8" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Torockói menyasszony</t>
   </si>
   <si>
+    <t>https://youtu.be/_7Mq3T05VNo</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/_7Mq3T05VNo" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Uz Bence</t>
   </si>
   <si>
+    <t>https://youtu.be/KRMICFQ031Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/KRMICFQ031Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Üzenet a Volga partról</t>
   </si>
   <si>
+    <t>https://youtu.be/wGxwNv9Ix2Y</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/wGxwNv9Ix2Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Valamit visz a víz</t>
   </si>
   <si>
+    <t>https://youtu.be/BiIyVTDPV4g</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BiIyVTDPV4g" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Varjú a toronyórán</t>
   </si>
   <si>
     <t>Vica, a vadevezős</t>
   </si>
   <si>
+    <t>https://youtu.be/Bk0L9kFcktE</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Bk0L9kFcktE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Viharbrigád</t>
   </si>
   <si>
@@ -1478,6 +2186,12 @@
   </si>
   <si>
     <t>Én voltam</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IdtL5iMaotU</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/IdtL5iMaotU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
     <t>Szomorú csütörtök, vidám vasárnap</t>
@@ -1494,7 +2208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,6 +2219,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1536,22 +2256,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1560,7 +2283,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,14 +2593,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="251.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="251.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -4411,15 +5134,19 @@
       <c r="F101" s="4">
         <v>1</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="4">
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C102" s="4">
         <v>1943</v>
@@ -4433,15 +5160,19 @@
       <c r="F102" s="4">
         <v>1</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="4">
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C103" s="4">
         <v>1941</v>
@@ -4455,7 +5186,9 @@
       <c r="F103" s="4">
         <v>0</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -4463,7 +5196,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C104" s="4">
         <v>1937</v>
@@ -4477,15 +5210,19 @@
       <c r="F104" s="4">
         <v>1</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4">
         <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C105" s="4">
         <v>1935</v>
@@ -4499,15 +5236,19 @@
       <c r="F105" s="4">
         <v>1</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4">
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C106" s="4">
         <v>1942</v>
@@ -4521,15 +5262,19 @@
       <c r="F106" s="4">
         <v>1</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4">
         <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C107" s="4">
         <v>1940</v>
@@ -4543,15 +5288,19 @@
       <c r="F107" s="4">
         <v>1</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="4">
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C108" s="4">
         <v>1942</v>
@@ -4565,7 +5314,9 @@
       <c r="F108" s="4">
         <v>1</v>
       </c>
-      <c r="G108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -4573,7 +5324,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C109" s="4">
         <v>1938</v>
@@ -4587,7 +5338,9 @@
       <c r="F109" s="4">
         <v>1</v>
       </c>
-      <c r="G109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -4595,7 +5348,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C110" s="4">
         <v>1941</v>
@@ -4609,15 +5362,19 @@
       <c r="F110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="4">
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C111" s="4">
         <v>1941</v>
@@ -4631,15 +5388,19 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="4">
         <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C112" s="4">
         <v>1934</v>
@@ -4653,15 +5414,19 @@
       <c r="F112" s="4">
         <v>1</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="4">
         <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C113" s="4">
         <v>1941</v>
@@ -4675,7 +5440,9 @@
       <c r="F113" s="4">
         <v>0</v>
       </c>
-      <c r="G113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
@@ -4683,7 +5450,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C114" s="4">
         <v>1937</v>
@@ -4697,15 +5464,19 @@
       <c r="F114" s="4">
         <v>1</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="4">
         <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C115" s="4">
         <v>1941</v>
@@ -4719,15 +5490,19 @@
       <c r="F115" s="4">
         <v>1</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="4">
         <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C116" s="4">
         <v>1943</v>
@@ -4741,7 +5516,9 @@
       <c r="F116" s="4">
         <v>1</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -4749,7 +5526,7 @@
         <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C117" s="4">
         <v>1937</v>
@@ -4763,15 +5540,19 @@
       <c r="F117" s="4">
         <v>1</v>
       </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="4">
         <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C118" s="4">
         <v>1944</v>
@@ -4785,7 +5566,9 @@
       <c r="F118" s="4">
         <v>1</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
@@ -4793,7 +5576,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C119" s="4">
         <v>1937</v>
@@ -4807,15 +5590,19 @@
       <c r="F119" s="4">
         <v>1</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="4">
         <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C120" s="4">
         <v>1937</v>
@@ -4829,15 +5616,19 @@
       <c r="F120" s="4">
         <v>1</v>
       </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="4">
         <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C121" s="4">
         <v>1934</v>
@@ -4851,15 +5642,19 @@
       <c r="F121" s="4">
         <v>1</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="4">
         <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C122" s="4">
         <v>1940</v>
@@ -4873,15 +5668,19 @@
       <c r="F122" s="4">
         <v>1</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="4">
         <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C123" s="4">
         <v>1936</v>
@@ -4895,7 +5694,9 @@
       <c r="F123" s="4">
         <v>0</v>
       </c>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -4903,7 +5704,7 @@
         <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C124" s="4">
         <v>1938</v>
@@ -4917,7 +5718,9 @@
       <c r="F124" s="4">
         <v>0</v>
       </c>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -4925,7 +5728,7 @@
         <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C125" s="4">
         <v>1934</v>
@@ -4939,15 +5742,19 @@
       <c r="F125" s="4">
         <v>1</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="G125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="4">
         <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="C126" s="4">
         <v>1940</v>
@@ -4961,15 +5768,19 @@
       <c r="F126" s="4">
         <v>0</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="G126" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="4">
         <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="C127" s="4">
         <v>1939</v>
@@ -4983,15 +5794,17 @@
       <c r="F127" s="4">
         <v>1</v>
       </c>
-      <c r="G127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H127" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="20.25">
       <c r="A128" s="4">
         <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="C128" s="4">
         <v>1935</v>
@@ -5005,15 +5818,17 @@
       <c r="F128" s="4">
         <v>0</v>
       </c>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H128" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="20.25">
       <c r="A129" s="4">
         <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="C129" s="4">
         <v>1936</v>
@@ -5027,15 +5842,19 @@
       <c r="F129" s="4">
         <v>1</v>
       </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="G129" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="20.25">
       <c r="A130" s="4">
         <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C130" s="4">
         <v>1942</v>
@@ -5049,15 +5868,17 @@
       <c r="F130" s="4">
         <v>1</v>
       </c>
-      <c r="G130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H130" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="20.25">
       <c r="A131" s="4">
         <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C131" s="4">
         <v>1935</v>
@@ -5071,15 +5892,19 @@
       <c r="F131" s="4">
         <v>1</v>
       </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="G131" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="20.25">
       <c r="A132" s="4">
         <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C132" s="4">
         <v>1942</v>
@@ -5093,15 +5918,17 @@
       <c r="F132" s="4">
         <v>0</v>
       </c>
-      <c r="G132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H132" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="20.25">
       <c r="A133" s="4">
         <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C133" s="4">
         <v>1937</v>
@@ -5115,15 +5942,19 @@
       <c r="F133" s="4">
         <v>1</v>
       </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="G133" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="20.25">
       <c r="A134" s="4">
         <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C134" s="4">
         <v>1939</v>
@@ -5137,15 +5968,17 @@
       <c r="F134" s="4">
         <v>1</v>
       </c>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H134" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="20.25">
       <c r="A135" s="4">
         <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C135" s="4">
         <v>1935</v>
@@ -5159,15 +5992,19 @@
       <c r="F135" s="4">
         <v>1</v>
       </c>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="G135" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="20.25">
       <c r="A136" s="4">
         <v>141</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="C136" s="4">
         <v>1942</v>
@@ -5181,15 +6018,19 @@
       <c r="F136" s="4">
         <v>1</v>
       </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="G136" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="20.25">
       <c r="A137" s="4">
         <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="C137" s="4">
         <v>1938</v>
@@ -5203,15 +6044,17 @@
       <c r="F137" s="4">
         <v>1</v>
       </c>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H137" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.25">
       <c r="A138" s="4">
         <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="C138" s="4">
         <v>1939</v>
@@ -5225,15 +6068,19 @@
       <c r="F138" s="4">
         <v>1</v>
       </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="G138" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.25">
       <c r="A139" s="4">
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C139" s="4">
         <v>1942</v>
@@ -5247,15 +6094,17 @@
       <c r="F139" s="4">
         <v>0</v>
       </c>
-      <c r="G139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H139" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.25">
       <c r="A140" s="4">
         <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="C140" s="4">
         <v>1942</v>
@@ -5269,15 +6118,17 @@
       <c r="F140" s="4">
         <v>0</v>
       </c>
-      <c r="G140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H140" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.25">
       <c r="A141" s="4">
         <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="C141" s="4">
         <v>1938</v>
@@ -5291,15 +6142,19 @@
       <c r="F141" s="4">
         <v>1</v>
       </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="G141" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.25">
       <c r="A142" s="4">
         <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="C142" s="4">
         <v>1939</v>
@@ -5313,15 +6168,19 @@
       <c r="F142" s="4">
         <v>0</v>
       </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="G142" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.25">
       <c r="A143" s="4">
         <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="C143" s="4">
         <v>1937</v>
@@ -5335,15 +6194,17 @@
       <c r="F143" s="4">
         <v>0</v>
       </c>
-      <c r="G143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H143" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.25">
       <c r="A144" s="4">
         <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C144" s="4">
         <v>1938</v>
@@ -5357,15 +6218,19 @@
       <c r="F144" s="4">
         <v>1</v>
       </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="G144" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.25">
       <c r="A145" s="4">
         <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C145" s="4">
         <v>1940</v>
@@ -5379,15 +6244,17 @@
       <c r="F145" s="4">
         <v>1</v>
       </c>
-      <c r="G145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H145" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.25">
       <c r="A146" s="4">
         <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="C146" s="4">
         <v>1938</v>
@@ -5401,15 +6268,19 @@
       <c r="F146" s="4">
         <v>1</v>
       </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="G146" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="20.25">
       <c r="A147" s="4">
         <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C147" s="4">
         <v>1932</v>
@@ -5423,15 +6294,19 @@
       <c r="F147" s="4">
         <v>1</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="G147" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="20.25">
       <c r="A148" s="4">
         <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="C148" s="4">
         <v>1942</v>
@@ -5445,15 +6320,19 @@
       <c r="F148" s="4">
         <v>1</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="G148" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="20.25">
       <c r="A149" s="4">
         <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="C149" s="4">
         <v>1936</v>
@@ -5467,15 +6346,19 @@
       <c r="F149" s="4">
         <v>1</v>
       </c>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="G149" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="20.25">
       <c r="A150" s="4">
         <v>155</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="C150" s="4">
         <v>1943</v>
@@ -5489,15 +6372,17 @@
       <c r="F150" s="4">
         <v>1</v>
       </c>
-      <c r="G150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H150" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="20.25">
       <c r="A151" s="4">
         <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="C151" s="4">
         <v>1932</v>
@@ -5511,15 +6396,19 @@
       <c r="F151" s="4">
         <v>1</v>
       </c>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="G151" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="20.25">
       <c r="A152" s="4">
         <v>157</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="C152" s="4">
         <v>1941</v>
@@ -5533,15 +6422,19 @@
       <c r="F152" s="4">
         <v>1</v>
       </c>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="G152" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="20.25">
       <c r="A153" s="4">
         <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="C153" s="4">
         <v>1941</v>
@@ -5555,15 +6448,17 @@
       <c r="F153" s="4">
         <v>1</v>
       </c>
-      <c r="G153" s="2"/>
+      <c r="G153" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H153" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="20.25">
       <c r="A154" s="4">
         <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="C154" s="4">
         <v>1938</v>
@@ -5577,15 +6472,19 @@
       <c r="F154" s="4">
         <v>1</v>
       </c>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="4">
         <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="C155" s="4">
         <v>1940</v>
@@ -5599,15 +6498,19 @@
       <c r="F155" s="4">
         <v>1</v>
       </c>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="4">
         <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="C156" s="4">
         <v>1943</v>
@@ -5621,7 +6524,9 @@
       <c r="F156" s="4">
         <v>1</v>
       </c>
-      <c r="G156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
@@ -5629,7 +6534,7 @@
         <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C157" s="4">
         <v>1940</v>
@@ -5643,7 +6548,9 @@
       <c r="F157" s="4">
         <v>1</v>
       </c>
-      <c r="G157" s="2"/>
+      <c r="G157" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
@@ -5651,7 +6558,7 @@
         <v>163</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="C158" s="4">
         <v>1943</v>
@@ -5665,7 +6572,9 @@
       <c r="F158" s="4">
         <v>1</v>
       </c>
-      <c r="G158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
@@ -5673,7 +6582,7 @@
         <v>164</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="C159" s="4">
         <v>1937</v>
@@ -5687,15 +6596,19 @@
       <c r="F159" s="4">
         <v>1</v>
       </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="G159" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="4">
         <v>165</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="C160" s="4">
         <v>1939</v>
@@ -5709,15 +6622,19 @@
       <c r="F160" s="4">
         <v>0</v>
       </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="G160" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="4">
         <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C161" s="4">
         <v>1940</v>
@@ -5731,15 +6648,19 @@
       <c r="F161" s="4">
         <v>1</v>
       </c>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="4">
         <v>168</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="C162" s="4">
         <v>1938</v>
@@ -5753,15 +6674,19 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="4">
         <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="C163" s="4">
         <v>1942</v>
@@ -5775,7 +6700,9 @@
       <c r="F163" s="4">
         <v>0</v>
       </c>
-      <c r="G163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -5783,7 +6710,7 @@
         <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="C164" s="4">
         <v>1937</v>
@@ -5797,7 +6724,9 @@
       <c r="F164" s="4">
         <v>1</v>
       </c>
-      <c r="G164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
@@ -5805,7 +6734,7 @@
         <v>171</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="C165" s="4">
         <v>1935</v>
@@ -5819,15 +6748,19 @@
       <c r="F165" s="4">
         <v>1</v>
       </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="4">
         <v>172</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C166" s="4">
         <v>1936</v>
@@ -5841,15 +6774,19 @@
       <c r="F166" s="4">
         <v>1</v>
       </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="G166" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="4">
         <v>173</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="C167" s="4">
         <v>1940</v>
@@ -5863,15 +6800,19 @@
       <c r="F167" s="4">
         <v>1</v>
       </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="G167" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="4">
         <v>174</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="C168" s="4">
         <v>1937</v>
@@ -5885,15 +6826,19 @@
       <c r="F168" s="4">
         <v>1</v>
       </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="G168" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="4">
         <v>175</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="C169" s="4">
         <v>1940</v>
@@ -5907,15 +6852,19 @@
       <c r="F169" s="4">
         <v>1</v>
       </c>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="G169" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="4">
         <v>176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="C170" s="4">
         <v>1939</v>
@@ -5929,7 +6878,9 @@
       <c r="F170" s="4">
         <v>1</v>
       </c>
-      <c r="G170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
@@ -5937,7 +6888,7 @@
         <v>177</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="C171" s="4">
         <v>1943</v>
@@ -5951,15 +6902,19 @@
       <c r="F171" s="4">
         <v>1</v>
       </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="G171" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="4">
         <v>179</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="C172" s="4">
         <v>1942</v>
@@ -5973,15 +6928,19 @@
       <c r="F172" s="4">
         <v>1</v>
       </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="4">
         <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="C173" s="4">
         <v>1943</v>
@@ -5993,15 +6952,19 @@
       <c r="F173" s="4">
         <v>1</v>
       </c>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="4">
         <v>181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="C174" s="4">
         <v>1941</v>
@@ -6015,15 +6978,19 @@
       <c r="F174" s="4">
         <v>1</v>
       </c>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="4">
         <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="C175" s="4">
         <v>1941</v>
@@ -6037,7 +7004,9 @@
       <c r="F175" s="4">
         <v>1</v>
       </c>
-      <c r="G175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
@@ -6045,7 +7014,7 @@
         <v>183</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="C176" s="4">
         <v>1942</v>
@@ -6059,7 +7028,9 @@
       <c r="F176" s="4">
         <v>1</v>
       </c>
-      <c r="G176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
@@ -6067,7 +7038,7 @@
         <v>184</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="C177" s="4">
         <v>1943</v>
@@ -6081,7 +7052,9 @@
       <c r="F177" s="4">
         <v>1</v>
       </c>
-      <c r="G177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
@@ -6089,7 +7062,7 @@
         <v>185</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="C178" s="4">
         <v>1943</v>
@@ -6103,7 +7076,9 @@
       <c r="F178" s="4">
         <v>1</v>
       </c>
-      <c r="G178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
@@ -6111,7 +7086,7 @@
         <v>186</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="C179" s="4">
         <v>1938</v>
@@ -6125,7 +7100,9 @@
       <c r="F179" s="4">
         <v>0</v>
       </c>
-      <c r="G179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
@@ -6133,7 +7110,7 @@
         <v>188</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="C180" s="4">
         <v>1938</v>
@@ -6147,7 +7124,9 @@
       <c r="F180" s="4">
         <v>1</v>
       </c>
-      <c r="G180" s="2"/>
+      <c r="G180" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
@@ -6155,7 +7134,7 @@
         <v>189</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="C181" s="4">
         <v>1940</v>
@@ -6169,7 +7148,9 @@
       <c r="F181" s="4">
         <v>1</v>
       </c>
-      <c r="G181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
@@ -6177,7 +7158,7 @@
         <v>190</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="C182" s="4">
         <v>1936</v>
@@ -6191,15 +7172,19 @@
       <c r="F182" s="4">
         <v>0</v>
       </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="G182" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="4">
         <v>191</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="C183" s="4">
         <v>1939</v>
@@ -6213,15 +7198,19 @@
       <c r="F183" s="4">
         <v>1</v>
       </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="4">
         <v>192</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="C184" s="4">
         <v>1940</v>
@@ -6235,15 +7224,19 @@
       <c r="F184" s="4">
         <v>1</v>
       </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="4">
         <v>193</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="C185" s="4">
         <v>1942</v>
@@ -6255,7 +7248,9 @@
       <c r="F185" s="4">
         <v>1</v>
       </c>
-      <c r="G185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
@@ -6263,7 +7258,7 @@
         <v>194</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="C186" s="4">
         <v>1939</v>
@@ -6275,15 +7270,19 @@
       <c r="F186" s="4">
         <v>1</v>
       </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="G186" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="4">
         <v>195</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="C187" s="4">
         <v>1934</v>
@@ -6297,15 +7296,19 @@
       <c r="F187" s="4">
         <v>1</v>
       </c>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="G187" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="4">
         <v>196</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="C188" s="4">
         <v>1941</v>
@@ -6319,7 +7322,9 @@
       <c r="F188" s="4">
         <v>1</v>
       </c>
-      <c r="G188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
@@ -6327,7 +7332,7 @@
         <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="C189" s="4">
         <v>1939</v>
@@ -6341,15 +7346,19 @@
       <c r="F189" s="4">
         <v>1</v>
       </c>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="4">
         <v>198</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="C190" s="4">
         <v>1937</v>
@@ -6363,15 +7372,19 @@
       <c r="F190" s="4">
         <v>1</v>
       </c>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="4">
         <v>199</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="C191" s="4">
         <v>1938</v>
@@ -6385,15 +7398,19 @@
       <c r="F191" s="4">
         <v>1</v>
       </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="4">
         <v>200</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="C192" s="4">
         <v>1941</v>
@@ -6407,7 +7424,9 @@
       <c r="F192" s="4">
         <v>1</v>
       </c>
-      <c r="G192" s="2"/>
+      <c r="G192" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
@@ -6415,7 +7434,7 @@
         <v>201</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="C193" s="4">
         <v>1932</v>
@@ -6429,7 +7448,9 @@
       <c r="F193" s="4">
         <v>1</v>
       </c>
-      <c r="G193" s="2"/>
+      <c r="G193" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
@@ -6437,7 +7458,7 @@
         <v>203</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="C194" s="4">
         <v>1937</v>
@@ -6451,15 +7472,19 @@
       <c r="F194" s="4">
         <v>1</v>
       </c>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="4">
         <v>204</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>322</v>
+        <v>436</v>
       </c>
       <c r="C195" s="4">
         <v>1940</v>
@@ -6473,15 +7498,19 @@
       <c r="F195" s="4">
         <v>1</v>
       </c>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="G195" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="4">
         <v>205</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="C196" s="4">
         <v>1940</v>
@@ -6495,15 +7524,19 @@
       <c r="F196" s="4">
         <v>1</v>
       </c>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="4">
         <v>206</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>324</v>
+        <v>442</v>
       </c>
       <c r="C197" s="4">
         <v>1943</v>
@@ -6517,15 +7550,19 @@
       <c r="F197" s="4">
         <v>1</v>
       </c>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="G197" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="4">
         <v>301</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="C198" s="4">
         <v>1937</v>
@@ -6539,15 +7576,19 @@
       <c r="F198" s="4">
         <v>1</v>
       </c>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="G198" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="4">
         <v>302</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>326</v>
+        <v>448</v>
       </c>
       <c r="C199" s="4">
         <v>1937</v>
@@ -6561,7 +7602,9 @@
       <c r="F199" s="4">
         <v>1</v>
       </c>
-      <c r="G199" s="2"/>
+      <c r="G199" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
@@ -6569,7 +7612,7 @@
         <v>303</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>327</v>
+        <v>449</v>
       </c>
       <c r="C200" s="4">
         <v>1943</v>
@@ -6583,7 +7626,9 @@
       <c r="F200" s="4">
         <v>1</v>
       </c>
-      <c r="G200" s="2"/>
+      <c r="G200" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
@@ -6591,7 +7636,7 @@
         <v>304</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>328</v>
+        <v>450</v>
       </c>
       <c r="C201" s="4">
         <v>1941</v>
@@ -6605,7 +7650,9 @@
       <c r="F201" s="4">
         <v>1</v>
       </c>
-      <c r="G201" s="2"/>
+      <c r="G201" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
@@ -6613,7 +7660,7 @@
         <v>305</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>329</v>
+        <v>451</v>
       </c>
       <c r="C202" s="4">
         <v>1935</v>
@@ -6627,15 +7674,19 @@
       <c r="F202" s="4">
         <v>1</v>
       </c>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="G202" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="4">
         <v>306</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
       <c r="C203" s="4">
         <v>1943</v>
@@ -6649,7 +7700,9 @@
       <c r="F203" s="4">
         <v>0</v>
       </c>
-      <c r="G203" s="2"/>
+      <c r="G203" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
@@ -6657,7 +7710,7 @@
         <v>308</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="C204" s="4">
         <v>1937</v>
@@ -6671,15 +7724,19 @@
       <c r="F204" s="4">
         <v>1</v>
       </c>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="G204" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="4">
         <v>309</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="C205" s="4">
         <v>1942</v>
@@ -6693,7 +7750,9 @@
       <c r="F205" s="4">
         <v>1</v>
       </c>
-      <c r="G205" s="2"/>
+      <c r="G205" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
@@ -6701,7 +7760,7 @@
         <v>310</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="C206" s="4">
         <v>1941</v>
@@ -6715,15 +7774,19 @@
       <c r="F206" s="4">
         <v>0</v>
       </c>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="G206" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="4">
         <v>311</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="C207" s="4">
         <v>1931</v>
@@ -6737,15 +7800,19 @@
       <c r="F207" s="4">
         <v>1</v>
       </c>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="G207" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="4">
         <v>312</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="C208" s="4">
         <v>1935</v>
@@ -6759,15 +7826,19 @@
       <c r="F208" s="4">
         <v>0</v>
       </c>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="G208" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="4">
         <v>313</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="C209" s="4">
         <v>1943</v>
@@ -6777,7 +7848,9 @@
       <c r="F209" s="4">
         <v>0</v>
       </c>
-      <c r="G209" s="2"/>
+      <c r="G209" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
@@ -6785,7 +7858,7 @@
         <v>314</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="C210" s="4">
         <v>1943</v>
@@ -6799,7 +7872,9 @@
       <c r="F210" s="4">
         <v>1</v>
       </c>
-      <c r="G210" s="2"/>
+      <c r="G210" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
@@ -6807,7 +7882,7 @@
         <v>315</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>338</v>
+        <v>470</v>
       </c>
       <c r="C211" s="4">
         <v>1941</v>
@@ -6821,7 +7896,9 @@
       <c r="F211" s="4">
         <v>0</v>
       </c>
-      <c r="G211" s="2"/>
+      <c r="G211" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
@@ -6829,7 +7906,7 @@
         <v>316</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="C212" s="4">
         <v>1940</v>
@@ -6843,7 +7920,9 @@
       <c r="F212" s="4">
         <v>1</v>
       </c>
-      <c r="G212" s="2"/>
+      <c r="G212" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
@@ -6851,7 +7930,7 @@
         <v>317</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
       <c r="C213" s="4">
         <v>1938</v>
@@ -6865,15 +7944,19 @@
       <c r="F213" s="4">
         <v>0</v>
       </c>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
+      <c r="G213" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="4">
         <v>318</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>341</v>
+        <v>475</v>
       </c>
       <c r="C214" s="4">
         <v>1938</v>
@@ -6887,15 +7970,19 @@
       <c r="F214" s="4">
         <v>0</v>
       </c>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
+      <c r="G214" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="4">
         <v>319</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="C215" s="4">
         <v>1931</v>
@@ -6905,7 +7992,9 @@
       <c r="F215" s="4">
         <v>0</v>
       </c>
-      <c r="G215" s="2"/>
+      <c r="G215" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
@@ -6913,7 +8002,7 @@
         <v>320</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>343</v>
+        <v>479</v>
       </c>
       <c r="C216" s="4">
         <v>1937</v>
@@ -6925,7 +8014,9 @@
       <c r="F216" s="4">
         <v>0</v>
       </c>
-      <c r="G216" s="2"/>
+      <c r="G216" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
@@ -6933,7 +8024,7 @@
         <v>321</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>344</v>
+        <v>480</v>
       </c>
       <c r="C217" s="4">
         <v>1938</v>
@@ -6947,7 +8038,9 @@
       <c r="F217" s="4">
         <v>1</v>
       </c>
-      <c r="G217" s="2"/>
+      <c r="G217" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
@@ -6955,7 +8048,7 @@
         <v>322</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="C218" s="4">
         <v>1943</v>
@@ -6969,7 +8062,9 @@
       <c r="F218" s="4">
         <v>1</v>
       </c>
-      <c r="G218" s="2"/>
+      <c r="G218" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
@@ -6977,7 +8072,7 @@
         <v>323</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="C219" s="4">
         <v>1939</v>
@@ -6991,7 +8086,9 @@
       <c r="F219" s="4">
         <v>0</v>
       </c>
-      <c r="G219" s="2"/>
+      <c r="G219" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
@@ -6999,7 +8096,7 @@
         <v>324</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>347</v>
+        <v>483</v>
       </c>
       <c r="C220" s="4">
         <v>1943</v>
@@ -7013,7 +8110,9 @@
       <c r="F220" s="4">
         <v>0</v>
       </c>
-      <c r="G220" s="2"/>
+      <c r="G220" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
@@ -7021,7 +8120,7 @@
         <v>325</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>348</v>
+        <v>484</v>
       </c>
       <c r="C221" s="4">
         <v>1943</v>
@@ -7035,7 +8134,9 @@
       <c r="F221" s="4">
         <v>1</v>
       </c>
-      <c r="G221" s="2"/>
+      <c r="G221" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
@@ -7043,7 +8144,7 @@
         <v>326</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="C222" s="4">
         <v>1931</v>
@@ -7053,7 +8154,9 @@
       <c r="F222" s="4">
         <v>0</v>
       </c>
-      <c r="G222" s="2"/>
+      <c r="G222" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
@@ -7061,7 +8164,7 @@
         <v>327</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>350</v>
+        <v>486</v>
       </c>
       <c r="C223" s="4">
         <v>1944</v>
@@ -7075,15 +8178,19 @@
       <c r="F223" s="4">
         <v>1</v>
       </c>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
+      <c r="G223" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="4">
         <v>328</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>351</v>
+        <v>489</v>
       </c>
       <c r="C224" s="4">
         <v>1937</v>
@@ -7097,7 +8204,9 @@
       <c r="F224" s="4">
         <v>1</v>
       </c>
-      <c r="G224" s="2"/>
+      <c r="G224" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
@@ -7105,7 +8214,7 @@
         <v>329</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>352</v>
+        <v>490</v>
       </c>
       <c r="C225" s="4">
         <v>1941</v>
@@ -7115,7 +8224,9 @@
       <c r="F225" s="4">
         <v>0</v>
       </c>
-      <c r="G225" s="2"/>
+      <c r="G225" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H225" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
@@ -7123,7 +8234,7 @@
         <v>330</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>353</v>
+        <v>491</v>
       </c>
       <c r="C226" s="4">
         <v>1930</v>
@@ -7137,7 +8248,9 @@
       <c r="F226" s="4">
         <v>0</v>
       </c>
-      <c r="G226" s="2"/>
+      <c r="G226" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
@@ -7145,7 +8258,7 @@
         <v>331</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>354</v>
+        <v>492</v>
       </c>
       <c r="C227" s="4">
         <v>1941</v>
@@ -7159,7 +8272,9 @@
       <c r="F227" s="4">
         <v>1</v>
       </c>
-      <c r="G227" s="2"/>
+      <c r="G227" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="H227" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
@@ -7167,7 +8282,7 @@
         <v>332</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>355</v>
+        <v>494</v>
       </c>
       <c r="C228" s="4">
         <v>1935</v>
@@ -7181,7 +8296,9 @@
       <c r="F228" s="4">
         <v>1</v>
       </c>
-      <c r="G228" s="2"/>
+      <c r="G228" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
@@ -7189,7 +8306,7 @@
         <v>334</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="C229" s="4">
         <v>1935</v>
@@ -7203,15 +8320,19 @@
       <c r="F229" s="4">
         <v>1</v>
       </c>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
+      <c r="G229" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="4">
         <v>335</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="C230" s="4">
         <v>1938</v>
@@ -7225,7 +8346,9 @@
       <c r="F230" s="4">
         <v>0</v>
       </c>
-      <c r="G230" s="2"/>
+      <c r="G230" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
@@ -7233,7 +8356,7 @@
         <v>337</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="C231" s="4">
         <v>1943</v>
@@ -7247,7 +8370,9 @@
       <c r="F231" s="4">
         <v>1</v>
       </c>
-      <c r="G231" s="2"/>
+      <c r="G231" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
@@ -7255,7 +8380,7 @@
         <v>338</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="C232" s="4">
         <v>1938</v>
@@ -7269,7 +8394,9 @@
       <c r="F232" s="4">
         <v>0</v>
       </c>
-      <c r="G232" s="2"/>
+      <c r="G232" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
@@ -7277,7 +8404,7 @@
         <v>339</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>360</v>
+        <v>501</v>
       </c>
       <c r="C233" s="4">
         <v>1935</v>
@@ -7291,15 +8418,19 @@
       <c r="F233" s="4">
         <v>1</v>
       </c>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
+      <c r="G233" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="4">
         <v>340</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="C234" s="4">
         <v>1934</v>
@@ -7311,7 +8442,9 @@
       <c r="F234" s="4">
         <v>0</v>
       </c>
-      <c r="G234" s="2"/>
+      <c r="G234" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
@@ -7319,7 +8452,7 @@
         <v>341</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>362</v>
+        <v>505</v>
       </c>
       <c r="C235" s="4">
         <v>1938</v>
@@ -7333,15 +8466,19 @@
       <c r="F235" s="4">
         <v>1</v>
       </c>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
+      <c r="G235" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="4">
         <v>342</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>363</v>
+        <v>508</v>
       </c>
       <c r="C236" s="4">
         <v>1929</v>
@@ -7355,15 +8492,19 @@
       <c r="F236" s="4">
         <v>1</v>
       </c>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
+      <c r="G236" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="4">
         <v>343</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="C237" s="4">
         <v>1937</v>
@@ -7377,7 +8518,9 @@
       <c r="F237" s="4">
         <v>1</v>
       </c>
-      <c r="G237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
@@ -7385,7 +8528,7 @@
         <v>344</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="C238" s="4">
         <v>1942</v>
@@ -7399,15 +8542,19 @@
       <c r="F238" s="4">
         <v>1</v>
       </c>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
+      <c r="G238" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="4">
         <v>345</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>366</v>
+        <v>515</v>
       </c>
       <c r="C239" s="4">
         <v>1937</v>
@@ -7421,7 +8568,9 @@
       <c r="F239" s="4">
         <v>1</v>
       </c>
-      <c r="G239" s="2"/>
+      <c r="G239" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
@@ -7429,7 +8578,7 @@
         <v>346</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>367</v>
+        <v>516</v>
       </c>
       <c r="C240" s="4">
         <v>1935</v>
@@ -7443,15 +8592,19 @@
       <c r="F240" s="4">
         <v>1</v>
       </c>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
+      <c r="G240" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="4">
         <v>347</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>368</v>
+        <v>519</v>
       </c>
       <c r="C241" s="4">
         <v>1942</v>
@@ -7465,7 +8618,9 @@
       <c r="F241" s="4">
         <v>1</v>
       </c>
-      <c r="G241" s="2"/>
+      <c r="G241" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
@@ -7473,7 +8628,7 @@
         <v>348</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="C242" s="4">
         <v>1942</v>
@@ -7487,15 +8642,19 @@
       <c r="F242" s="4">
         <v>1</v>
       </c>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
+      <c r="G242" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="4">
         <v>349</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>370</v>
+        <v>523</v>
       </c>
       <c r="C243" s="4">
         <v>1944</v>
@@ -7507,7 +8666,9 @@
       <c r="F243" s="4">
         <v>1</v>
       </c>
-      <c r="G243" s="2"/>
+      <c r="G243" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
@@ -7515,7 +8676,7 @@
         <v>350</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="C244" s="4">
         <v>1943</v>
@@ -7529,15 +8690,19 @@
       <c r="F244" s="4">
         <v>1</v>
       </c>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
+      <c r="G244" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="4">
         <v>351</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>372</v>
+        <v>527</v>
       </c>
       <c r="C245" s="4">
         <v>1943</v>
@@ -7549,7 +8714,9 @@
       <c r="F245" s="4">
         <v>0</v>
       </c>
-      <c r="G245" s="2"/>
+      <c r="G245" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
@@ -7557,7 +8724,7 @@
         <v>352</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>373</v>
+        <v>528</v>
       </c>
       <c r="C246" s="4">
         <v>1944</v>
@@ -7569,7 +8736,9 @@
       <c r="F246" s="4">
         <v>1</v>
       </c>
-      <c r="G246" s="2"/>
+      <c r="G246" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
@@ -7577,7 +8746,7 @@
         <v>353</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>374</v>
+        <v>529</v>
       </c>
       <c r="C247" s="4">
         <v>1942</v>
@@ -7591,7 +8760,9 @@
       <c r="F247" s="4">
         <v>1</v>
       </c>
-      <c r="G247" s="2"/>
+      <c r="G247" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
@@ -7599,7 +8770,7 @@
         <v>354</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="C248" s="4">
         <v>1941</v>
@@ -7613,15 +8784,19 @@
       <c r="F248" s="4">
         <v>1</v>
       </c>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
+      <c r="G248" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="4">
         <v>355</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="C249" s="4">
         <v>1944</v>
@@ -7631,15 +8806,19 @@
       <c r="F249" s="4">
         <v>0</v>
       </c>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
+      <c r="G249" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="4">
         <v>356</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="C250" s="4">
         <v>1943</v>
@@ -7653,7 +8832,9 @@
       <c r="F250" s="4">
         <v>1</v>
       </c>
-      <c r="G250" s="2"/>
+      <c r="G250" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
@@ -7661,7 +8842,7 @@
         <v>357</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="C251" s="4">
         <v>1938</v>
@@ -7675,7 +8856,9 @@
       <c r="F251" s="4">
         <v>1</v>
       </c>
-      <c r="G251" s="2"/>
+      <c r="G251" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
@@ -7683,7 +8866,7 @@
         <v>358</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="C252" s="4">
         <v>1935</v>
@@ -7697,15 +8880,19 @@
       <c r="F252" s="4">
         <v>1</v>
       </c>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
+      <c r="G252" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="4">
         <v>359</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="C253" s="4">
         <v>1936</v>
@@ -7719,15 +8906,19 @@
       <c r="F253" s="4">
         <v>1</v>
       </c>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
+      <c r="G253" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="4">
         <v>360</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>381</v>
+        <v>543</v>
       </c>
       <c r="C254" s="4">
         <v>1934</v>
@@ -7741,15 +8932,19 @@
       <c r="F254" s="4">
         <v>1</v>
       </c>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
+      <c r="G254" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="4">
         <v>361</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>382</v>
+        <v>546</v>
       </c>
       <c r="C255" s="4">
         <v>1942</v>
@@ -7763,7 +8958,9 @@
       <c r="F255" s="4">
         <v>0</v>
       </c>
-      <c r="G255" s="2"/>
+      <c r="G255" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
@@ -7771,7 +8968,7 @@
         <v>362</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="C256" s="4">
         <v>1938</v>
@@ -7785,7 +8982,9 @@
       <c r="F256" s="4">
         <v>0</v>
       </c>
-      <c r="G256" s="2"/>
+      <c r="G256" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
@@ -7793,7 +8992,7 @@
         <v>363</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="C257" s="4">
         <v>1942</v>
@@ -7807,15 +9006,19 @@
       <c r="F257" s="4">
         <v>1</v>
       </c>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
+      <c r="G257" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="4">
         <v>364</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>385</v>
+        <v>551</v>
       </c>
       <c r="C258" s="4">
         <v>1936</v>
@@ -7829,7 +9032,9 @@
       <c r="F258" s="4">
         <v>1</v>
       </c>
-      <c r="G258" s="2"/>
+      <c r="G258" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
@@ -7837,7 +9042,7 @@
         <v>365</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="C259" s="4">
         <v>1937</v>
@@ -7851,15 +9056,19 @@
       <c r="F259" s="4">
         <v>1</v>
       </c>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
+      <c r="G259" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="4">
         <v>366</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>387</v>
+        <v>555</v>
       </c>
       <c r="C260" s="4">
         <v>1938</v>
@@ -7873,7 +9082,9 @@
       <c r="F260" s="4">
         <v>0</v>
       </c>
-      <c r="G260" s="2"/>
+      <c r="G260" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H260" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
@@ -7881,7 +9092,7 @@
         <v>367</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="C261" s="4">
         <v>1942</v>
@@ -7895,7 +9106,9 @@
       <c r="F261" s="4">
         <v>1</v>
       </c>
-      <c r="G261" s="2"/>
+      <c r="G261" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
@@ -7903,7 +9116,7 @@
         <v>368</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>389</v>
+        <v>557</v>
       </c>
       <c r="C262" s="4">
         <v>1939</v>
@@ -7917,15 +9130,19 @@
       <c r="F262" s="4">
         <v>1</v>
       </c>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
+      <c r="G262" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="4">
         <v>369</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
       <c r="C263" s="4">
         <v>1932</v>
@@ -7937,7 +9154,9 @@
       <c r="F263" s="4">
         <v>0</v>
       </c>
-      <c r="G263" s="2"/>
+      <c r="G263" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
@@ -7945,7 +9164,7 @@
         <v>370</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>391</v>
+        <v>561</v>
       </c>
       <c r="C264" s="4">
         <v>1944</v>
@@ -7957,7 +9176,9 @@
       <c r="F264" s="4">
         <v>1</v>
       </c>
-      <c r="G264" s="2"/>
+      <c r="G264" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
@@ -7965,7 +9186,7 @@
         <v>371</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>392</v>
+        <v>562</v>
       </c>
       <c r="C265" s="4">
         <v>1936</v>
@@ -7977,7 +9198,9 @@
       <c r="F265" s="4">
         <v>0</v>
       </c>
-      <c r="G265" s="2"/>
+      <c r="G265" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
@@ -7985,7 +9208,7 @@
         <v>372</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>393</v>
+        <v>563</v>
       </c>
       <c r="C266" s="4">
         <v>1939</v>
@@ -7999,15 +9222,19 @@
       <c r="F266" s="4">
         <v>0</v>
       </c>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
+      <c r="G266" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="4">
         <v>373</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>394</v>
+        <v>566</v>
       </c>
       <c r="C267" s="4">
         <v>1943</v>
@@ -8019,7 +9246,9 @@
       <c r="F267" s="4">
         <v>0</v>
       </c>
-      <c r="G267" s="2"/>
+      <c r="G267" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
@@ -8027,7 +9256,7 @@
         <v>374</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>395</v>
+        <v>567</v>
       </c>
       <c r="C268" s="4">
         <v>1943</v>
@@ -8041,7 +9270,9 @@
       <c r="F268" s="4">
         <v>1</v>
       </c>
-      <c r="G268" s="2"/>
+      <c r="G268" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
@@ -8049,7 +9280,7 @@
         <v>378</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>396</v>
+        <v>568</v>
       </c>
       <c r="C269" s="4">
         <v>1939</v>
@@ -8063,7 +9294,9 @@
       <c r="F269" s="4">
         <v>1</v>
       </c>
-      <c r="G269" s="2"/>
+      <c r="G269" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
@@ -8071,7 +9304,7 @@
         <v>379</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>397</v>
+        <v>569</v>
       </c>
       <c r="C270" s="4">
         <v>1944</v>
@@ -8083,7 +9316,9 @@
       <c r="F270" s="4">
         <v>1</v>
       </c>
-      <c r="G270" s="2"/>
+      <c r="G270" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
@@ -8091,7 +9326,7 @@
         <v>380</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>398</v>
+        <v>570</v>
       </c>
       <c r="C271" s="4">
         <v>1944</v>
@@ -8105,7 +9340,9 @@
       <c r="F271" s="4">
         <v>1</v>
       </c>
-      <c r="G271" s="2"/>
+      <c r="G271" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
@@ -8113,7 +9350,7 @@
         <v>381</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>399</v>
+        <v>571</v>
       </c>
       <c r="C272" s="4">
         <v>1942</v>
@@ -8127,7 +9364,9 @@
       <c r="F272" s="4">
         <v>1</v>
       </c>
-      <c r="G272" s="2"/>
+      <c r="G272" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
@@ -8135,7 +9374,7 @@
         <v>382</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="C273" s="4">
         <v>1941</v>
@@ -8149,7 +9388,9 @@
       <c r="F273" s="4">
         <v>0</v>
       </c>
-      <c r="G273" s="2"/>
+      <c r="G273" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
@@ -8157,7 +9398,7 @@
         <v>383</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>401</v>
+        <v>573</v>
       </c>
       <c r="C274" s="4">
         <v>1935</v>
@@ -8171,7 +9412,9 @@
       <c r="F274" s="4">
         <v>0</v>
       </c>
-      <c r="G274" s="2"/>
+      <c r="G274" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
@@ -8179,7 +9422,7 @@
         <v>384</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>402</v>
+        <v>574</v>
       </c>
       <c r="C275" s="4">
         <v>1941</v>
@@ -8193,15 +9436,19 @@
       <c r="F275" s="4">
         <v>1</v>
       </c>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
+      <c r="G275" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="4">
         <v>385</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="C276" s="4">
         <v>1944</v>
@@ -8213,7 +9460,9 @@
       <c r="F276" s="4">
         <v>1</v>
       </c>
-      <c r="G276" s="2"/>
+      <c r="G276" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
@@ -8221,7 +9470,7 @@
         <v>386</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>404</v>
+        <v>578</v>
       </c>
       <c r="C277" s="4">
         <v>1936</v>
@@ -8235,15 +9484,19 @@
       <c r="F277" s="4">
         <v>1</v>
       </c>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
+      <c r="G277" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="4">
         <v>387</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>405</v>
+        <v>581</v>
       </c>
       <c r="C278" s="4">
         <v>1941</v>
@@ -8257,15 +9510,19 @@
       <c r="F278" s="4">
         <v>1</v>
       </c>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
+      <c r="G278" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="4">
         <v>388</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>406</v>
+        <v>584</v>
       </c>
       <c r="C279" s="4">
         <v>1941</v>
@@ -8279,7 +9536,9 @@
       <c r="F279" s="4">
         <v>1</v>
       </c>
-      <c r="G279" s="2"/>
+      <c r="G279" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
@@ -8287,7 +9546,7 @@
         <v>389</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>407</v>
+        <v>585</v>
       </c>
       <c r="C280" s="4">
         <v>1943</v>
@@ -8301,15 +9560,19 @@
       <c r="F280" s="4">
         <v>1</v>
       </c>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
+      <c r="G280" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="4">
         <v>390</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>408</v>
+        <v>588</v>
       </c>
       <c r="C281" s="4">
         <v>1934</v>
@@ -8323,15 +9586,19 @@
       <c r="F281" s="4">
         <v>1</v>
       </c>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
+      <c r="G281" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="4">
         <v>391</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>409</v>
+        <v>591</v>
       </c>
       <c r="C282" s="4">
         <v>1942</v>
@@ -8345,15 +9612,19 @@
       <c r="F282" s="4">
         <v>1</v>
       </c>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
+      <c r="G282" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="4">
         <v>392</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="C283" s="4">
         <v>1937</v>
@@ -8365,7 +9636,9 @@
       <c r="F283" s="4">
         <v>0</v>
       </c>
-      <c r="G283" s="2"/>
+      <c r="G283" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
@@ -8373,7 +9646,7 @@
         <v>394</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>411</v>
+        <v>595</v>
       </c>
       <c r="C284" s="4">
         <v>1939</v>
@@ -8387,7 +9660,9 @@
       <c r="F284" s="4">
         <v>0</v>
       </c>
-      <c r="G284" s="2"/>
+      <c r="G284" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
@@ -8395,7 +9670,7 @@
         <v>395</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>412</v>
+        <v>596</v>
       </c>
       <c r="C285" s="4">
         <v>1931</v>
@@ -8409,15 +9684,19 @@
       <c r="F285" s="4">
         <v>0</v>
       </c>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
+      <c r="G285" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="4">
         <v>396</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>413</v>
+        <v>599</v>
       </c>
       <c r="C286" s="4">
         <v>1944</v>
@@ -8431,7 +9710,9 @@
       <c r="F286" s="4">
         <v>0</v>
       </c>
-      <c r="G286" s="2"/>
+      <c r="G286" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
@@ -8439,7 +9720,7 @@
         <v>398</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="C287" s="4">
         <v>1942</v>
@@ -8453,7 +9734,9 @@
       <c r="F287" s="4">
         <v>1</v>
       </c>
-      <c r="G287" s="2"/>
+      <c r="G287" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H287" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
@@ -8461,7 +9744,7 @@
         <v>399</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="C288" s="4">
         <v>1939</v>
@@ -8475,7 +9758,9 @@
       <c r="F288" s="4">
         <v>0</v>
       </c>
-      <c r="G288" s="2"/>
+      <c r="G288" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H288" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
@@ -8483,7 +9768,7 @@
         <v>400</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>416</v>
+        <v>602</v>
       </c>
       <c r="C289" s="4">
         <v>1933</v>
@@ -8495,7 +9780,9 @@
       <c r="F289" s="4">
         <v>0</v>
       </c>
-      <c r="G289" s="2"/>
+      <c r="G289" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
@@ -8503,7 +9790,7 @@
         <v>401</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>417</v>
+        <v>603</v>
       </c>
       <c r="C290" s="4">
         <v>1940</v>
@@ -8517,7 +9804,9 @@
       <c r="F290" s="4">
         <v>0</v>
       </c>
-      <c r="G290" s="2"/>
+      <c r="G290" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
@@ -8525,7 +9814,7 @@
         <v>402</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>418</v>
+        <v>604</v>
       </c>
       <c r="C291" s="4">
         <v>1930</v>
@@ -8537,7 +9826,9 @@
       <c r="F291" s="4">
         <v>0</v>
       </c>
-      <c r="G291" s="2"/>
+      <c r="G291" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
@@ -8545,7 +9836,7 @@
         <v>403</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>419</v>
+        <v>605</v>
       </c>
       <c r="C292" s="4">
         <v>1943</v>
@@ -8559,15 +9850,19 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
+      <c r="G292" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="4">
         <v>404</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="C293" s="4">
         <v>1937</v>
@@ -8581,7 +9876,9 @@
       <c r="F293" s="4">
         <v>0</v>
       </c>
-      <c r="G293" s="2"/>
+      <c r="G293" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H293" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
@@ -8589,7 +9886,7 @@
         <v>405</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>421</v>
+        <v>609</v>
       </c>
       <c r="C294" s="4">
         <v>1943</v>
@@ -8603,7 +9900,9 @@
       <c r="F294" s="4">
         <v>1</v>
       </c>
-      <c r="G294" s="2"/>
+      <c r="G294" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H294" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
@@ -8611,7 +9910,7 @@
         <v>406</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>422</v>
+        <v>610</v>
       </c>
       <c r="C295" s="4">
         <v>1933</v>
@@ -8625,7 +9924,9 @@
       <c r="F295" s="4">
         <v>1</v>
       </c>
-      <c r="G295" s="2"/>
+      <c r="G295" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
@@ -8633,7 +9934,7 @@
         <v>407</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>423</v>
+        <v>611</v>
       </c>
       <c r="C296" s="4">
         <v>1943</v>
@@ -8647,7 +9948,9 @@
       <c r="F296" s="4">
         <v>0</v>
       </c>
-      <c r="G296" s="2"/>
+      <c r="G296" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
@@ -8655,7 +9958,7 @@
         <v>408</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>424</v>
+        <v>612</v>
       </c>
       <c r="C297" s="4">
         <v>1936</v>
@@ -8669,15 +9972,19 @@
       <c r="F297" s="4">
         <v>1</v>
       </c>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
+      <c r="G297" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="4">
         <v>409</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>425</v>
+        <v>615</v>
       </c>
       <c r="C298" s="4">
         <v>1943</v>
@@ -8691,7 +9998,9 @@
       <c r="F298" s="4">
         <v>1</v>
       </c>
-      <c r="G298" s="2"/>
+      <c r="G298" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H298" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
@@ -8699,7 +10008,7 @@
         <v>410</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>426</v>
+        <v>616</v>
       </c>
       <c r="C299" s="4">
         <v>1941</v>
@@ -8713,15 +10022,19 @@
       <c r="F299" s="4">
         <v>1</v>
       </c>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
+      <c r="G299" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="4">
         <v>411</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
       <c r="C300" s="4">
         <v>1937</v>
@@ -8735,15 +10048,19 @@
       <c r="F300" s="4">
         <v>1</v>
       </c>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
+      <c r="G300" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="4">
         <v>412</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>428</v>
+        <v>622</v>
       </c>
       <c r="C301" s="4">
         <v>1943</v>
@@ -8757,15 +10074,19 @@
       <c r="F301" s="4">
         <v>1</v>
       </c>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
+      <c r="G301" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="4">
         <v>413</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>429</v>
+        <v>625</v>
       </c>
       <c r="C302" s="4">
         <v>1944</v>
@@ -8777,15 +10098,19 @@
       <c r="F302" s="4">
         <v>1</v>
       </c>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
+      <c r="G302" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="4">
         <v>414</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>430</v>
+        <v>628</v>
       </c>
       <c r="C303" s="4">
         <v>1937</v>
@@ -8799,7 +10124,9 @@
       <c r="F303" s="4">
         <v>0</v>
       </c>
-      <c r="G303" s="2"/>
+      <c r="G303" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
@@ -8807,7 +10134,7 @@
         <v>415</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>431</v>
+        <v>629</v>
       </c>
       <c r="C304" s="4">
         <v>1939</v>
@@ -8821,7 +10148,9 @@
       <c r="F304" s="4">
         <v>0</v>
       </c>
-      <c r="G304" s="2"/>
+      <c r="G304" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
@@ -8829,7 +10158,7 @@
         <v>416</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>432</v>
+        <v>630</v>
       </c>
       <c r="C305" s="4">
         <v>1943</v>
@@ -8843,15 +10172,19 @@
       <c r="F305" s="4">
         <v>1</v>
       </c>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
+      <c r="G305" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="4">
         <v>417</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>433</v>
+        <v>633</v>
       </c>
       <c r="C306" s="4">
         <v>1943</v>
@@ -8865,15 +10198,19 @@
       <c r="F306" s="4">
         <v>1</v>
       </c>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
+      <c r="G306" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="4">
         <v>418</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>434</v>
+        <v>636</v>
       </c>
       <c r="C307" s="4">
         <v>1943</v>
@@ -8887,15 +10224,19 @@
       <c r="F307" s="4">
         <v>1</v>
       </c>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
+      <c r="G307" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="4">
         <v>420</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>435</v>
+        <v>639</v>
       </c>
       <c r="C308" s="4">
         <v>1939</v>
@@ -8909,7 +10250,9 @@
       <c r="F308" s="4">
         <v>0</v>
       </c>
-      <c r="G308" s="2"/>
+      <c r="G308" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
@@ -8917,7 +10260,7 @@
         <v>421</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>436</v>
+        <v>640</v>
       </c>
       <c r="C309" s="4">
         <v>1943</v>
@@ -8931,7 +10274,9 @@
       <c r="F309" s="4">
         <v>1</v>
       </c>
-      <c r="G309" s="2"/>
+      <c r="G309" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
@@ -8939,7 +10284,7 @@
         <v>422</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>437</v>
+        <v>641</v>
       </c>
       <c r="C310" s="4">
         <v>1936</v>
@@ -8953,15 +10298,19 @@
       <c r="F310" s="4">
         <v>1</v>
       </c>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
+      <c r="G310" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="4">
         <v>423</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>438</v>
+        <v>644</v>
       </c>
       <c r="C311" s="4">
         <v>1941</v>
@@ -8975,7 +10324,9 @@
       <c r="F311" s="4">
         <v>1</v>
       </c>
-      <c r="G311" s="2"/>
+      <c r="G311" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H311" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
@@ -8983,7 +10334,7 @@
         <v>424</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>439</v>
+        <v>645</v>
       </c>
       <c r="C312" s="4">
         <v>1933</v>
@@ -8997,7 +10348,9 @@
       <c r="F312" s="4">
         <v>0</v>
       </c>
-      <c r="G312" s="2"/>
+      <c r="G312" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
@@ -9005,7 +10358,7 @@
         <v>425</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>440</v>
+        <v>646</v>
       </c>
       <c r="C313" s="4">
         <v>1943</v>
@@ -9019,7 +10372,9 @@
       <c r="F313" s="4">
         <v>0</v>
       </c>
-      <c r="G313" s="2"/>
+      <c r="G313" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
@@ -9027,7 +10382,7 @@
         <v>426</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="C314" s="4">
         <v>1943</v>
@@ -9041,15 +10396,19 @@
       <c r="F314" s="4">
         <v>1</v>
       </c>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
+      <c r="G314" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="4">
         <v>427</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>442</v>
+        <v>650</v>
       </c>
       <c r="C315" s="4">
         <v>1941</v>
@@ -9063,7 +10422,9 @@
       <c r="F315" s="4">
         <v>0</v>
       </c>
-      <c r="G315" s="2"/>
+      <c r="G315" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
@@ -9071,7 +10432,7 @@
         <v>428</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>443</v>
+        <v>651</v>
       </c>
       <c r="C316" s="4">
         <v>1931</v>
@@ -9081,7 +10442,9 @@
       <c r="F316" s="4">
         <v>0</v>
       </c>
-      <c r="G316" s="2"/>
+      <c r="G316" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
@@ -9089,7 +10452,7 @@
         <v>429</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>444</v>
+        <v>652</v>
       </c>
       <c r="C317" s="4">
         <v>1938</v>
@@ -9101,7 +10464,9 @@
       <c r="F317" s="4">
         <v>0</v>
       </c>
-      <c r="G317" s="2"/>
+      <c r="G317" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
@@ -9109,7 +10474,7 @@
         <v>430</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>445</v>
+        <v>653</v>
       </c>
       <c r="C318" s="4">
         <v>1939</v>
@@ -9123,15 +10488,19 @@
       <c r="F318" s="4">
         <v>0</v>
       </c>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
+      <c r="G318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" s="6" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="4">
         <v>431</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>446</v>
+        <v>654</v>
       </c>
       <c r="C319" s="4">
         <v>1943</v>
@@ -9143,15 +10512,19 @@
       <c r="F319" s="4">
         <v>1</v>
       </c>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
+      <c r="G319" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="4">
         <v>433</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>447</v>
+        <v>657</v>
       </c>
       <c r="C320" s="4">
         <v>1938</v>
@@ -9165,15 +10538,19 @@
       <c r="F320" s="4">
         <v>1</v>
       </c>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
+      <c r="G320" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="4">
         <v>434</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>448</v>
+        <v>660</v>
       </c>
       <c r="C321" s="4">
         <v>1943</v>
@@ -9187,7 +10564,9 @@
       <c r="F321" s="4">
         <v>1</v>
       </c>
-      <c r="G321" s="2"/>
+      <c r="G321" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
@@ -9195,7 +10574,7 @@
         <v>435</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>449</v>
+        <v>661</v>
       </c>
       <c r="C322" s="4">
         <v>1943</v>
@@ -9209,7 +10588,9 @@
       <c r="F322" s="4">
         <v>1</v>
       </c>
-      <c r="G322" s="2"/>
+      <c r="G322" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
@@ -9217,7 +10598,7 @@
         <v>436</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>450</v>
+        <v>662</v>
       </c>
       <c r="C323" s="4">
         <v>1933</v>
@@ -9231,7 +10612,9 @@
       <c r="F323" s="4">
         <v>0</v>
       </c>
-      <c r="G323" s="2"/>
+      <c r="G323" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
@@ -9239,7 +10622,7 @@
         <v>437</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>451</v>
+        <v>663</v>
       </c>
       <c r="C324" s="4">
         <v>1939</v>
@@ -9253,7 +10636,9 @@
       <c r="F324" s="4">
         <v>0</v>
       </c>
-      <c r="G324" s="2"/>
+      <c r="G324" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
@@ -9261,7 +10646,7 @@
         <v>438</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>452</v>
+        <v>664</v>
       </c>
       <c r="C325" s="4">
         <v>1937</v>
@@ -9275,7 +10660,9 @@
       <c r="F325" s="4">
         <v>1</v>
       </c>
-      <c r="G325" s="2"/>
+      <c r="G325" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
@@ -9283,7 +10670,7 @@
         <v>439</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>453</v>
+        <v>665</v>
       </c>
       <c r="C326" s="4">
         <v>1936</v>
@@ -9295,7 +10682,9 @@
       <c r="F326" s="4">
         <v>0</v>
       </c>
-      <c r="G326" s="2"/>
+      <c r="G326" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H326" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
@@ -9303,7 +10692,7 @@
         <v>440</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>454</v>
+        <v>666</v>
       </c>
       <c r="C327" s="4">
         <v>1937</v>
@@ -9317,7 +10706,9 @@
       <c r="F327" s="4">
         <v>0</v>
       </c>
-      <c r="G327" s="2"/>
+      <c r="G327" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H327" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
@@ -9325,7 +10716,7 @@
         <v>441</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>455</v>
+        <v>667</v>
       </c>
       <c r="C328" s="4">
         <v>1937</v>
@@ -9339,7 +10730,9 @@
       <c r="F328" s="4">
         <v>0</v>
       </c>
-      <c r="G328" s="2"/>
+      <c r="G328" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
@@ -9347,7 +10740,7 @@
         <v>442</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="C329" s="4">
         <v>1933</v>
@@ -9361,15 +10754,19 @@
       <c r="F329" s="4">
         <v>1</v>
       </c>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
+      <c r="G329" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="4">
         <v>443</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>457</v>
+        <v>671</v>
       </c>
       <c r="C330" s="4">
         <v>1943</v>
@@ -9383,7 +10780,9 @@
       <c r="F330" s="4">
         <v>1</v>
       </c>
-      <c r="G330" s="2"/>
+      <c r="G330" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
@@ -9391,7 +10790,7 @@
         <v>444</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>458</v>
+        <v>672</v>
       </c>
       <c r="C331" s="4">
         <v>1934</v>
@@ -9403,7 +10802,9 @@
       <c r="F331" s="4">
         <v>0</v>
       </c>
-      <c r="G331" s="2"/>
+      <c r="G331" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
@@ -9411,7 +10812,7 @@
         <v>445</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>459</v>
+        <v>673</v>
       </c>
       <c r="C332" s="4">
         <v>1940</v>
@@ -9425,15 +10826,19 @@
       <c r="F332" s="4">
         <v>1</v>
       </c>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
+      <c r="G332" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="4">
         <v>446</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>460</v>
+        <v>676</v>
       </c>
       <c r="C333" s="4">
         <v>1936</v>
@@ -9447,15 +10852,19 @@
       <c r="F333" s="4">
         <v>1</v>
       </c>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
+      <c r="G333" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="4">
         <v>447</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>461</v>
+        <v>679</v>
       </c>
       <c r="C334" s="4">
         <v>1942</v>
@@ -9469,7 +10878,9 @@
       <c r="F334" s="4">
         <v>0</v>
       </c>
-      <c r="G334" s="2"/>
+      <c r="G334" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H334" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
@@ -9477,7 +10888,7 @@
         <v>449</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>462</v>
+        <v>680</v>
       </c>
       <c r="C335" s="4">
         <v>1939</v>
@@ -9491,7 +10902,9 @@
       <c r="F335" s="4">
         <v>0</v>
       </c>
-      <c r="G335" s="2"/>
+      <c r="G335" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H335" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
@@ -9499,7 +10912,7 @@
         <v>450</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>463</v>
+        <v>681</v>
       </c>
       <c r="C336" s="4">
         <v>1938</v>
@@ -9513,15 +10926,19 @@
       <c r="F336" s="4">
         <v>1</v>
       </c>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
+      <c r="G336" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="4">
         <v>451</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>464</v>
+        <v>684</v>
       </c>
       <c r="C337" s="4">
         <v>1942</v>
@@ -9535,7 +10952,9 @@
       <c r="F337" s="4">
         <v>0</v>
       </c>
-      <c r="G337" s="2"/>
+      <c r="G337" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H337" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
@@ -9543,7 +10962,7 @@
         <v>452</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>465</v>
+        <v>685</v>
       </c>
       <c r="C338" s="4">
         <v>1942</v>
@@ -9557,7 +10976,9 @@
       <c r="F338" s="4">
         <v>1</v>
       </c>
-      <c r="G338" s="2"/>
+      <c r="G338" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H338" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
@@ -9565,7 +10986,7 @@
         <v>453</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>466</v>
+        <v>686</v>
       </c>
       <c r="C339" s="4">
         <v>1944</v>
@@ -9579,7 +11000,9 @@
       <c r="F339" s="4">
         <v>1</v>
       </c>
-      <c r="G339" s="2"/>
+      <c r="G339" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H339" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
@@ -9587,7 +11010,7 @@
         <v>454</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>467</v>
+        <v>687</v>
       </c>
       <c r="C340" s="4">
         <v>1935</v>
@@ -9601,7 +11024,9 @@
       <c r="F340" s="4">
         <v>1</v>
       </c>
-      <c r="G340" s="2"/>
+      <c r="G340" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H340" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
@@ -9609,7 +11034,7 @@
         <v>455</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>468</v>
+        <v>688</v>
       </c>
       <c r="C341" s="4">
         <v>1942</v>
@@ -9623,15 +11048,19 @@
       <c r="F341" s="4">
         <v>1</v>
       </c>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
+      <c r="G341" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="4">
         <v>456</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>469</v>
+        <v>691</v>
       </c>
       <c r="C342" s="4">
         <v>1943</v>
@@ -9645,7 +11074,9 @@
       <c r="F342" s="4">
         <v>1</v>
       </c>
-      <c r="G342" s="2"/>
+      <c r="G342" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H342" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
@@ -9653,7 +11084,7 @@
         <v>457</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>470</v>
+        <v>692</v>
       </c>
       <c r="C343" s="4">
         <v>1942</v>
@@ -9667,15 +11098,19 @@
       <c r="F343" s="4">
         <v>1</v>
       </c>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
+      <c r="G343" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="4">
         <v>459</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>471</v>
+        <v>693</v>
       </c>
       <c r="C344" s="4">
         <v>1932</v>
@@ -9689,15 +11124,19 @@
       <c r="F344" s="4">
         <v>1</v>
       </c>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
+      <c r="G344" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="4">
         <v>460</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>472</v>
+        <v>696</v>
       </c>
       <c r="C345" s="4">
         <v>1938</v>
@@ -9711,7 +11150,9 @@
       <c r="F345" s="4">
         <v>1</v>
       </c>
-      <c r="G345" s="2"/>
+      <c r="G345" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H345" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
@@ -9719,7 +11160,7 @@
         <v>461</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="C346" s="4">
         <v>1940</v>
@@ -9733,7 +11174,9 @@
       <c r="F346" s="4">
         <v>0</v>
       </c>
-      <c r="G346" s="2"/>
+      <c r="G346" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H346" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
@@ -9741,7 +11184,7 @@
         <v>462</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>474</v>
+        <v>698</v>
       </c>
       <c r="C347" s="4">
         <v>1936</v>
@@ -9755,7 +11198,9 @@
       <c r="F347" s="4">
         <v>1</v>
       </c>
-      <c r="G347" s="2"/>
+      <c r="G347" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H347" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
@@ -9763,7 +11208,7 @@
         <v>463</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>475</v>
+        <v>699</v>
       </c>
       <c r="C348" s="4">
         <v>1937</v>
@@ -9777,15 +11222,19 @@
       <c r="F348" s="4">
         <v>0</v>
       </c>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
+      <c r="G348" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="4">
         <v>464</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="C349" s="4">
         <v>1937</v>
@@ -9799,15 +11248,19 @@
       <c r="F349" s="4">
         <v>1</v>
       </c>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
+      <c r="G349" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="4">
         <v>466</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>477</v>
+        <v>705</v>
       </c>
       <c r="C350" s="4">
         <v>1938</v>
@@ -9821,15 +11274,19 @@
       <c r="F350" s="4">
         <v>1</v>
       </c>
-      <c r="G350" s="2"/>
-      <c r="H350" s="2"/>
+      <c r="G350" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="4">
         <v>467</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>478</v>
+        <v>708</v>
       </c>
       <c r="C351" s="4">
         <v>1942</v>
@@ -9843,15 +11300,19 @@
       <c r="F351" s="4">
         <v>1</v>
       </c>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
+      <c r="G351" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="4">
         <v>469</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>479</v>
+        <v>711</v>
       </c>
       <c r="C352" s="4">
         <v>1943</v>
@@ -9865,15 +11326,19 @@
       <c r="F352" s="4">
         <v>1</v>
       </c>
-      <c r="G352" s="2"/>
-      <c r="H352" s="2"/>
+      <c r="G352" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="4">
         <v>470</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>480</v>
+        <v>714</v>
       </c>
       <c r="C353" s="4">
         <v>1938</v>
@@ -9887,7 +11352,9 @@
       <c r="F353" s="4">
         <v>1</v>
       </c>
-      <c r="G353" s="2"/>
+      <c r="G353" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H353" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
@@ -9895,7 +11362,7 @@
         <v>471</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>481</v>
+        <v>715</v>
       </c>
       <c r="C354" s="4">
         <v>1933</v>
@@ -9909,15 +11376,19 @@
       <c r="F354" s="4">
         <v>1</v>
       </c>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
+      <c r="G354" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="4">
         <v>472</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>482</v>
+        <v>718</v>
       </c>
       <c r="C355" s="4">
         <v>1943</v>
@@ -9931,7 +11402,9 @@
       <c r="F355" s="4">
         <v>0</v>
       </c>
-      <c r="G355" s="2"/>
+      <c r="G355" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H355" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
@@ -9939,7 +11412,7 @@
         <v>473</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>483</v>
+        <v>719</v>
       </c>
       <c r="C356" s="4">
         <v>1940</v>
@@ -9953,7 +11426,9 @@
       <c r="F356" s="4">
         <v>0</v>
       </c>
-      <c r="G356" s="2"/>
+      <c r="G356" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H356" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
@@ -9961,7 +11436,7 @@
         <v>474</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>484</v>
+        <v>720</v>
       </c>
       <c r="C357" s="4">
         <v>1936</v>
@@ -9973,7 +11448,9 @@
       <c r="F357" s="4">
         <v>0</v>
       </c>
-      <c r="G357" s="2"/>
+      <c r="G357" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H357" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
@@ -9981,7 +11458,7 @@
         <v>475</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>485</v>
+        <v>721</v>
       </c>
       <c r="C358" s="4">
         <v>1943</v>
@@ -9991,7 +11468,9 @@
       <c r="F358" s="4">
         <v>0</v>
       </c>
-      <c r="G358" s="2"/>
+      <c r="G358" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H358" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
@@ -9999,7 +11478,7 @@
         <v>601</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>486</v>
+        <v>722</v>
       </c>
       <c r="C359" s="4">
         <v>1929</v>
@@ -10011,7 +11490,9 @@
       <c r="F359" s="4">
         <v>0</v>
       </c>
-      <c r="G359" s="2"/>
+      <c r="G359" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H359" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
@@ -10019,7 +11500,7 @@
         <v>604</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>487</v>
+        <v>723</v>
       </c>
       <c r="C360" s="4">
         <v>1936</v>
@@ -10033,15 +11514,19 @@
       <c r="F360" s="4">
         <v>1</v>
       </c>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
+      <c r="G360" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="4">
         <v>605</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>488</v>
+        <v>726</v>
       </c>
       <c r="C361" s="4">
         <v>1936</v>
@@ -10053,7 +11538,9 @@
       <c r="F361" s="4">
         <v>0</v>
       </c>
-      <c r="G361" s="2"/>
+      <c r="G361" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H361" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
@@ -10061,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>489</v>
+        <v>727</v>
       </c>
       <c r="C362" s="4">
         <v>1936</v>
@@ -10075,7 +11562,9 @@
       <c r="F362" s="4">
         <v>0</v>
       </c>
-      <c r="G362" s="2"/>
+      <c r="G362" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H362" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
@@ -10083,7 +11572,7 @@
         <v>607</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>490</v>
+        <v>728</v>
       </c>
       <c r="C363" s="4">
         <v>1944</v>
@@ -10097,7 +11586,9 @@
       <c r="F363" s="4">
         <v>0</v>
       </c>
-      <c r="G363" s="2"/>
+      <c r="G363" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H363" s="2"/>
     </row>
   </sheetData>
